--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drago\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drago\Desktop\VVS\Docs\Lab03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE27BACE-4909-472C-8882-607400AA2F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5D9BE2-41A6-403E-802C-72F03F7BA964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1560" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="138">
-  <si>
-    <t>VVSS, Info Romana, 2023-2024</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="137">
   <si>
     <t>Criteriile de acoperire la nivelul codului sursa sunt exemplificate pentru problema de mai jos. Studentii vor aplica aceeasi modalitate de lucru pentru proiectul primit in Lab01.</t>
   </si>
@@ -1410,59 +1407,21 @@
   </cellStyleXfs>
   <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1567,42 +1526,65 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1619,9 +1601,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1634,17 +1613,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1779,42 +1776,43 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>118083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:colOff>394855</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image1.jpg">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A19B9A-5657-518B-DA2F-732A3C814789}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1228680"/>
-          <a:ext cx="4505040" cy="3685680"/>
+          <a:off x="152400" y="1157174"/>
+          <a:ext cx="4585855" cy="3301425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2015,119 +2013,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B1" s="15"/>
-      <c r="D1" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="4"/>
+      <c r="D1" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B2" s="16" t="s">
-        <v>1</v>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="4" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20" t="s">
+      <c r="P6" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="N7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="P7" s="20">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="N7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" s="1">
         <v>233</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="N8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="P8" s="20">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="N8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" s="1">
         <v>233</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="14.25" customHeight="1">
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="N9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="N9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="P9" s="20">
+      <c r="O9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P9" s="1">
         <v>233</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="14.25" customHeight="1">
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B11" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1">
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="14" spans="2:16" ht="14.25" customHeight="1"/>
@@ -2136,10 +2134,10 @@
     <row r="17" spans="2:2" ht="14.25" customHeight="1"/>
     <row r="18" spans="2:2" ht="14.25" customHeight="1"/>
     <row r="19" spans="2:2" ht="14.25" customHeight="1">
-      <c r="B19" s="17"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="2:2" ht="14.25" customHeight="1">
-      <c r="B20" s="17"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="2:2" ht="14.25" customHeight="1"/>
     <row r="22" spans="2:2" ht="14.25" customHeight="1"/>
@@ -3138,7 +3136,7 @@
   <dimension ref="B1:T1000"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I1"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -3153,377 +3151,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B1" s="15"/>
-      <c r="D1" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="4"/>
+      <c r="D1" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="2:20" ht="14.25" customHeight="1"/>
     <row r="3" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="B3" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="2:20" ht="14.25" customHeight="1"/>
     <row r="5" spans="2:20" ht="14.25" customHeight="1"/>
     <row r="6" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="I6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="Q6" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="Q6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
     </row>
     <row r="7" spans="2:20" ht="14.25" customHeight="1"/>
     <row r="8" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="I8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="I8" s="15" t="s">
+      <c r="Q8" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="25">
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="Q9" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="Q9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="25">
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="I10" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="Q10" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="Q10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="25">
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
     </row>
     <row r="12" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
     </row>
     <row r="13" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="Q13" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="Q13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
     </row>
     <row r="14" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
     </row>
     <row r="15" spans="2:20" ht="14.25" customHeight="1">
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="Q15" s="23" t="s">
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="Q15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="R15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
     </row>
     <row r="16" spans="2:20" ht="14.25" customHeight="1">
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="Q16" s="19" t="s">
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="Q16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="R16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
     </row>
     <row r="17" spans="9:20" ht="14.25" customHeight="1">
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="Q17" s="19" t="s">
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="Q17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="R17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
     </row>
     <row r="18" spans="9:20" ht="14.25" customHeight="1">
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="Q18" s="19" t="s">
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="Q18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R18" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="R18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
     </row>
     <row r="19" spans="9:20" ht="14.25" customHeight="1">
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="Q19" s="19" t="s">
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="Q19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="R19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
     </row>
     <row r="20" spans="9:20" ht="14.25" customHeight="1">
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="Q20" s="19" t="s">
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="Q20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="R20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
     </row>
     <row r="21" spans="9:20" ht="14.25" customHeight="1">
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="Q21" s="19" t="s">
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="Q21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="R21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
     </row>
     <row r="22" spans="9:20" ht="14.25" customHeight="1">
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="Q22" s="19" t="s">
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="Q22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R22" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="R22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
     </row>
     <row r="23" spans="9:20" ht="14.25" customHeight="1">
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="Q23" s="19" t="s">
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="Q23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R23" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="R23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
     </row>
     <row r="24" spans="9:20" ht="14.25" customHeight="1">
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
       <c r="Q24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="9:20" ht="14.25" customHeight="1"/>
@@ -4504,11 +4502,11 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="Q6:T6"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="C9:E9"/>
@@ -4525,11 +4523,11 @@
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R18:T18"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R23:T23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4544,8 +4542,8 @@
   </sheetPr>
   <dimension ref="B1:AF1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -4573,673 +4571,675 @@
     <col min="23" max="23" width="10.33203125" customWidth="1"/>
     <col min="24" max="24" width="10.5546875" customWidth="1"/>
     <col min="25" max="25" width="10.44140625" customWidth="1"/>
-    <col min="26" max="28" width="2.109375" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" customWidth="1"/>
-    <col min="30" max="30" width="2.109375" customWidth="1"/>
-    <col min="31" max="31" width="4.109375" customWidth="1"/>
-    <col min="32" max="32" width="5.109375" customWidth="1"/>
+    <col min="26" max="26" width="5.88671875" customWidth="1"/>
+    <col min="27" max="27" width="7.33203125" customWidth="1"/>
+    <col min="28" max="28" width="6.33203125" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" customWidth="1"/>
+    <col min="30" max="30" width="12" customWidth="1"/>
+    <col min="31" max="31" width="18.109375" customWidth="1"/>
+    <col min="32" max="32" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="14.25" customHeight="1">
-      <c r="B1" s="15"/>
-      <c r="D1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="4"/>
+      <c r="D1" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="2:32" ht="14.25" customHeight="1"/>
     <row r="3" spans="2:32" ht="14.25" customHeight="1">
-      <c r="B3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="2:32" ht="14.25" customHeight="1"/>
     <row r="5" spans="2:32" ht="14.25" customHeight="1">
-      <c r="B5" s="29"/>
+      <c r="B5" s="15"/>
     </row>
     <row r="6" spans="2:32" ht="14.25" customHeight="1">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
     </row>
     <row r="7" spans="2:32" ht="14.25" customHeight="1">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="66" t="s">
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
     </row>
     <row r="8" spans="2:32" ht="15" customHeight="1">
-      <c r="B8" s="3"/>
-      <c r="C8" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="69" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="65"/>
+      <c r="H8" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70" t="s">
+      <c r="I8" s="70"/>
+      <c r="J8" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="70"/>
-      <c r="J8" s="69" t="s">
+      <c r="K8" s="65"/>
+      <c r="L8" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69" t="s">
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="X8" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="63">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="63">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="V8" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="X8" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y8" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z8" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="67">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="67">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="67" t="s">
+      <c r="AD8" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="AD8" s="67" t="s">
+      <c r="AE8" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="AE8" s="67" t="s">
+      <c r="AF8" s="63" t="s">
         <v>67</v>
-      </c>
-      <c r="AF8" s="67" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:32" ht="14.25" customHeight="1">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="32" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="67"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="63"/>
     </row>
     <row r="10" spans="2:32" ht="42" customHeight="1">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="D10" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="E10" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="F10" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
     </row>
     <row r="11" spans="2:32" ht="40.049999999999997" customHeight="1">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="D11" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
     </row>
     <row r="12" spans="2:32" ht="99.75" customHeight="1">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="D12" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="E12" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
+      <c r="F12" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
     </row>
     <row r="13" spans="2:32" ht="88.8" customHeight="1">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="D13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
+      <c r="F13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
     </row>
     <row r="14" spans="2:32" ht="88.2" customHeight="1">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="D14" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
     </row>
     <row r="15" spans="2:32" ht="84.75" customHeight="1">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
+      <c r="D15" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
     </row>
     <row r="16" spans="2:32" ht="53.4">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="D16" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" s="43"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
+      <c r="E16" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="29"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
     </row>
     <row r="17" spans="2:32" ht="67.8" customHeight="1">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="D17" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="N17" s="43"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
+      <c r="E17" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="29"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
     </row>
     <row r="18" spans="2:32" ht="14.25" customHeight="1"/>
     <row r="19" spans="2:32" ht="14.25" customHeight="1"/>
@@ -6226,22 +6226,6 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="N8:Q15"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -6258,6 +6242,22 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Q15"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6271,8 +6271,8 @@
   </sheetPr>
   <dimension ref="B1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -6293,387 +6293,387 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B1" s="15"/>
-      <c r="D1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="4"/>
+      <c r="D1" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="2:16" ht="14.25" customHeight="1"/>
     <row r="3" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B3" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="B3" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
     </row>
     <row r="4" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="D4" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="E4" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="L4" s="75"/>
+      <c r="L4" s="87"/>
     </row>
     <row r="5" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="46" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="G5" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="H5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="88"/>
+      <c r="K5" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="46" t="s">
+      <c r="L5" s="32" t="s">
         <v>106</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B6" s="45">
+      <c r="B6" s="31">
         <v>9</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="48" t="s">
+      <c r="F6" s="35">
+        <v>29328.520833333299</v>
+      </c>
+      <c r="G6" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="49">
-        <v>29328.520833333299</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="H6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="86"/>
+      <c r="K6" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="78"/>
-      <c r="K6" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="L6" s="51" t="s">
-        <v>111</v>
+      <c r="L6" s="37" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B7" s="45">
+      <c r="B7" s="31">
         <v>10</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="52" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="51" t="s">
-        <v>111</v>
+      <c r="G7" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="87"/>
+      <c r="K7" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B8" s="45">
+      <c r="B8" s="31">
         <v>11</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="53" t="s">
+      <c r="C8" s="85"/>
+      <c r="D8" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="35">
+        <v>29328.520833333299</v>
+      </c>
+      <c r="G8" s="35">
+        <v>29328.520833333299</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="87"/>
+      <c r="K8" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="49">
-        <v>29328.520833333299</v>
-      </c>
-      <c r="G8" s="49">
-        <v>29328.520833333299</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="75"/>
-      <c r="K8" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="54" t="s">
-        <v>115</v>
+      <c r="L8" s="40" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B9" s="45">
+      <c r="B9" s="31">
         <v>12</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="49">
+      <c r="C9" s="85"/>
+      <c r="D9" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="35">
         <v>29332.520833333299</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="35">
         <v>29333.520833333299</v>
       </c>
-      <c r="H9" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="75"/>
-      <c r="K9" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9" s="51" t="s">
-        <v>111</v>
+      <c r="H9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="87"/>
+      <c r="K9" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B10" s="46">
+      <c r="B10" s="32">
         <v>13</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="76"/>
-      <c r="K10" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>24</v>
+      <c r="C10" s="85"/>
+      <c r="D10" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="88"/>
+      <c r="K10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B12" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="57"/>
+      <c r="B12" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="43"/>
     </row>
     <row r="13" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80" t="s">
+      <c r="G13" s="75"/>
+      <c r="H13" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81" t="s">
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="N13" s="82"/>
+      <c r="N13" s="77"/>
     </row>
     <row r="14" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="D14" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="E14" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="F14" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="86" t="s">
+      <c r="G14" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="87" t="s">
+      <c r="H14" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="88" t="s">
+      <c r="I14" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="I14" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="K14" s="89" t="s">
+      <c r="L14" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="L14" s="90" t="s">
+      <c r="M14" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="M14" s="91" t="s">
+      <c r="N14" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="N14" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="O14" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="P14" s="89" t="s">
-        <v>128</v>
+      <c r="O14" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="73" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="60" customHeight="1">
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="89"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="73"/>
     </row>
     <row r="16" spans="2:16" ht="57" customHeight="1">
-      <c r="B16" s="20">
+      <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="44">
         <v>2</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="44">
         <v>1</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="45">
         <v>1</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="46">
         <v>1</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="44">
+        <v>1</v>
+      </c>
+      <c r="K16" s="49">
+        <v>0</v>
+      </c>
+      <c r="L16" s="45">
+        <v>1</v>
+      </c>
+      <c r="M16" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="20">
-        <v>1</v>
-      </c>
-      <c r="J16" s="58">
-        <v>1</v>
-      </c>
-      <c r="K16" s="63">
-        <v>0</v>
-      </c>
-      <c r="L16" s="59">
-        <v>1</v>
-      </c>
-      <c r="M16" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="N16" s="65">
+      <c r="N16" s="51">
         <v>3</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="1">
         <v>3</v>
       </c>
-      <c r="P16" s="63">
+      <c r="P16" s="49">
         <v>0</v>
       </c>
     </row>
@@ -7663,6 +7663,23 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="N14:N15"/>
     <mergeCell ref="O14:O15"/>
     <mergeCell ref="P14:P15"/>
@@ -7679,23 +7696,6 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
